--- a/output/SAFRA_27249932000129.xlsx
+++ b/output/SAFRA_27249932000129.xlsx
@@ -845,10 +845,10 @@
         <v>44165</v>
       </c>
       <c r="B42">
-        <v>0.2905503662212261</v>
+        <v>0.2894605952241482</v>
       </c>
       <c r="C42">
-        <v>0.008808433004092731</v>
+        <v>0.007956571503239696</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFRA_27249932000129.xlsx
+++ b/output/SAFRA_27249932000129.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFRA GALILEO PJ FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,469 +383,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42947</v>
       </c>
       <c r="B2">
-        <v>0.03162006009648244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42978</v>
       </c>
       <c r="B3">
-        <v>0.05509655741336283</v>
-      </c>
-      <c r="C3">
         <v>0.02275692207331126</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43008</v>
       </c>
       <c r="B4">
-        <v>0.06647777949989231</v>
-      </c>
-      <c r="C4">
         <v>0.01078690097750989</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43039</v>
       </c>
       <c r="B5">
-        <v>0.0813707257373415</v>
-      </c>
-      <c r="C5">
         <v>0.01396460997474613</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43069</v>
       </c>
       <c r="B6">
-        <v>0.07211195782860669</v>
-      </c>
-      <c r="C6">
         <v>-0.008562066355570774</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43100</v>
       </c>
       <c r="B7">
-        <v>0.09591424954282246</v>
-      </c>
-      <c r="C7">
         <v>0.02220131166377759</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43131</v>
       </c>
       <c r="B8">
-        <v>0.1521545938380258</v>
-      </c>
-      <c r="C8">
         <v>0.05131819785960889</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43159</v>
       </c>
       <c r="B9">
-        <v>0.1477791923336949</v>
-      </c>
-      <c r="C9">
         <v>-0.003797581963159713</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43190</v>
       </c>
       <c r="B10">
-        <v>0.1464344953833749</v>
-      </c>
-      <c r="C10">
         <v>-0.001171564146920878</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43220</v>
       </c>
       <c r="B11">
-        <v>0.1516939528663694</v>
-      </c>
-      <c r="C11">
         <v>0.00458766506431374</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43251</v>
       </c>
       <c r="B12">
-        <v>0.07825555219925362</v>
-      </c>
-      <c r="C12">
         <v>-0.06376555202390377</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43281</v>
       </c>
       <c r="B13">
-        <v>0.06891967280446787</v>
-      </c>
-      <c r="C13">
         <v>-0.008658317943036731</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43312</v>
       </c>
       <c r="B14">
-        <v>0.08995898258794721</v>
-      </c>
-      <c r="C14">
         <v>0.01968277908879679</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43343</v>
       </c>
       <c r="B15">
-        <v>0.09981862501531791</v>
-      </c>
-      <c r="C15">
         <v>0.00904588391387029</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43373</v>
       </c>
       <c r="B16">
-        <v>0.1128319092898948</v>
-      </c>
-      <c r="C16">
         <v>0.01183220940125085</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43404</v>
       </c>
       <c r="B17">
-        <v>0.1320703990049219</v>
-      </c>
-      <c r="C17">
         <v>0.0172878667069345</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43434</v>
       </c>
       <c r="B18">
-        <v>0.14534863672739</v>
-      </c>
-      <c r="C18">
         <v>0.01172916254513812</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43465</v>
       </c>
       <c r="B19">
-        <v>0.1506033936591449</v>
-      </c>
-      <c r="C19">
         <v>0.004587910408458074</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43496</v>
       </c>
       <c r="B20">
-        <v>0.1723651606813887</v>
-      </c>
-      <c r="C20">
         <v>0.01891335202222644</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43524</v>
       </c>
       <c r="B21">
-        <v>0.1637346876085159</v>
-      </c>
-      <c r="C21">
         <v>-0.007361591219459895</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43555</v>
       </c>
       <c r="B22">
-        <v>0.1556610510747858</v>
-      </c>
-      <c r="C22">
         <v>-0.006937695180609937</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43585</v>
       </c>
       <c r="B23">
-        <v>0.1601776674738287</v>
-      </c>
-      <c r="C23">
         <v>0.00390825354444746</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43616</v>
       </c>
       <c r="B24">
-        <v>0.1755400241733092</v>
-      </c>
-      <c r="C24">
         <v>0.013241382876237</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43646</v>
       </c>
       <c r="B25">
-        <v>0.1830923797534267</v>
-      </c>
-      <c r="C25">
         <v>0.006424583957002072</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43677</v>
       </c>
       <c r="B26">
-        <v>0.1836301165513294</v>
-      </c>
-      <c r="C26">
         <v>0.0004545180132211613</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43708</v>
       </c>
       <c r="B27">
-        <v>0.1952251680448374</v>
-      </c>
-      <c r="C27">
         <v>0.00979617815681455</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43738</v>
       </c>
       <c r="B28">
-        <v>0.2105184754474836</v>
-      </c>
-      <c r="C28">
         <v>0.01279533581748726</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43769</v>
       </c>
       <c r="B29">
-        <v>0.2254400008276729</v>
-      </c>
-      <c r="C29">
         <v>0.01232655732468135</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43799</v>
       </c>
       <c r="B30">
-        <v>0.222823722553035</v>
-      </c>
-      <c r="C30">
         <v>-0.00213497051905509</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43830</v>
       </c>
       <c r="B31">
-        <v>0.243818422774166</v>
-      </c>
-      <c r="C31">
         <v>0.01716903248924373</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43861</v>
       </c>
       <c r="B32">
-        <v>0.2583456656031711</v>
-      </c>
-      <c r="C32">
         <v>0.01167955270883025</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43890</v>
       </c>
       <c r="B33">
-        <v>0.2522596706024904</v>
-      </c>
-      <c r="C33">
         <v>-0.004836504918355189</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43921</v>
       </c>
       <c r="B34">
-        <v>0.2542246863283792</v>
-      </c>
-      <c r="C34">
         <v>0.001569175924146293</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43951</v>
       </c>
       <c r="B35">
-        <v>0.2580150088366189</v>
-      </c>
-      <c r="C35">
         <v>0.00302204425535213</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43982</v>
       </c>
       <c r="B36">
-        <v>0.2746351714526196</v>
-      </c>
-      <c r="C36">
         <v>0.01321141838472228</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44012</v>
       </c>
       <c r="B37">
-        <v>0.2829104853852371</v>
-      </c>
-      <c r="C37">
         <v>0.006492300007057361</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44043</v>
       </c>
       <c r="B38">
-        <v>0.3040151383118801</v>
-      </c>
-      <c r="C38">
         <v>0.01645060443972102</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44074</v>
       </c>
       <c r="B39">
-        <v>0.2984279054663137</v>
-      </c>
-      <c r="C39">
         <v>-0.004284638024064202</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44104</v>
       </c>
       <c r="B40">
-        <v>0.2770232707196594</v>
-      </c>
-      <c r="C40">
         <v>-0.01648503906650645</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44135</v>
       </c>
       <c r="B41">
-        <v>0.2792818973352005</v>
-      </c>
-      <c r="C41">
         <v>0.001768665197673602</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44165</v>
       </c>
       <c r="B42">
-        <v>0.2894605952241482</v>
-      </c>
-      <c r="C42">
-        <v>0.007956571503239696</v>
+        <v>0.003779040597589711</v>
       </c>
     </row>
   </sheetData>
